--- a/teams-and-rosters/CS320-Sp22-Teams.xlsx
+++ b/teams-and-rosters/CS320-Sp22-Teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\donha\cs320-spring2022\teams-and-rosters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468A33F6-45D6-4D74-A95B-247537A6BDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E26D937-6EA5-41FD-9BF1-A6D9D55A92A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1608" yWindow="294" windowWidth="20844" windowHeight="12036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="924" windowWidth="18012" windowHeight="12036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>Section 102 (MWF 11:00 - 11:50)</t>
-  </si>
-  <si>
-    <t>Section 103 (MWF 2:00 - 2:50)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Team 3:
 ???</t>
@@ -38,15 +32,9 @@
 ???</t>
   </si>
   <si>
-    <t>Section 101 (MWF 8:00 - 8:50)</t>
-  </si>
-  <si>
     <t>CS320: Software Engineering Teams - Spring 2022</t>
   </si>
   <si>
-    <t>In-Class Mentors: TBD</t>
-  </si>
-  <si>
     <t>Team 1:
 ???</t>
   </si>
@@ -85,6 +73,24 @@
   <si>
     <t>Team 12:
 ???</t>
+  </si>
+  <si>
+    <t>In-Class Mentors: Eric Bosse, Tyler Franks</t>
+  </si>
+  <si>
+    <t>In-Class Mentors: Eric Bosse, Tyler Franks, David McHugh</t>
+  </si>
+  <si>
+    <t>In-Class Mentors: Tyler Franks, David McHugh, Mikayla Trost</t>
+  </si>
+  <si>
+    <t>Section 103 (M-W-F: 2:00 to 2:50)</t>
+  </si>
+  <si>
+    <t>Section 102 (M-W-F: 11:00 to 11:50)</t>
+  </si>
+  <si>
+    <t>Section 101 (M-W-F: 8:00 to 8:50)</t>
   </si>
 </sst>
 </file>
@@ -691,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -706,7 +712,7 @@
   <sheetData>
     <row r="2" spans="2:6" ht="25.8" x14ac:dyDescent="0.95">
       <c r="B2" s="24" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -722,7 +728,7 @@
     </row>
     <row r="4" spans="2:6" ht="20.399999999999999" x14ac:dyDescent="0.75">
       <c r="B4" s="26" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -731,7 +737,7 @@
     </row>
     <row r="5" spans="2:6" s="5" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B5" s="25" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
@@ -740,16 +746,16 @@
     </row>
     <row r="6" spans="2:6" s="2" customFormat="1" ht="31.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
@@ -779,7 +785,7 @@
     <row r="11" spans="2:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="12" spans="2:6" ht="20.399999999999999" x14ac:dyDescent="0.75">
       <c r="B12" s="26" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
@@ -788,7 +794,7 @@
     </row>
     <row r="13" spans="2:6" s="5" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B13" s="25" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
@@ -797,16 +803,16 @@
     </row>
     <row r="14" spans="2:6" ht="31.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
@@ -836,7 +842,7 @@
     <row r="19" spans="2:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="20" spans="2:6" ht="20.399999999999999" x14ac:dyDescent="0.75">
       <c r="B20" s="26" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
@@ -845,7 +851,7 @@
     </row>
     <row r="21" spans="2:6" s="5" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B21" s="25" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -854,16 +860,16 @@
     </row>
     <row r="22" spans="2:6" ht="31.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B22" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">

--- a/teams-and-rosters/CS320-Sp22-Teams.xlsx
+++ b/teams-and-rosters/CS320-Sp22-Teams.xlsx
@@ -1,28 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\donha\cs320-spring2022\teams-and-rosters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E26D937-6EA5-41FD-9BF1-A6D9D55A92A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6F72DA-218C-4DF5-9172-32319895A2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="924" windowWidth="18012" windowHeight="12036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9738" yWindow="222" windowWidth="12324" windowHeight="11784" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Team 3:
 ???</t>
@@ -43,54 +55,141 @@
 ???</t>
   </si>
   <si>
+    <t>In-Class Mentors: Eric Bosse, Tyler Franks</t>
+  </si>
+  <si>
+    <t>In-Class Mentors: Eric Bosse, Tyler Franks, David McHugh</t>
+  </si>
+  <si>
+    <t>In-Class Mentors: Tyler Franks, David McHugh, Mikayla Trost</t>
+  </si>
+  <si>
+    <t>Section 103 (M-W-F: 2:00 to 2:50)</t>
+  </si>
+  <si>
+    <t>Section 102 (M-W-F: 11:00 to 11:50)</t>
+  </si>
+  <si>
+    <t>Section 101 (M-W-F: 8:00 to 8:50)</t>
+  </si>
+  <si>
+    <t>Brady Carbaugh</t>
+  </si>
+  <si>
+    <t>Conrad Ogden</t>
+  </si>
+  <si>
+    <t>Jordan King</t>
+  </si>
+  <si>
+    <t>Robby Weaver</t>
+  </si>
+  <si>
+    <t>Bean Stinson</t>
+  </si>
+  <si>
+    <t>Bailey McBride</t>
+  </si>
+  <si>
+    <t>Derek Ile</t>
+  </si>
+  <si>
+    <t>Trey McCloskey</t>
+  </si>
+  <si>
+    <t>Nicholas Christman</t>
+  </si>
+  <si>
+    <t>Saul Sanjuan</t>
+  </si>
+  <si>
+    <t>Koen Jacoby</t>
+  </si>
+  <si>
+    <t>Luke Nall</t>
+  </si>
+  <si>
+    <t>Nicholas Bussiere</t>
+  </si>
+  <si>
+    <t>John Kettula</t>
+  </si>
+  <si>
+    <t>Andrew Mott</t>
+  </si>
+  <si>
+    <t>Brandon Simmons</t>
+  </si>
+  <si>
+    <t>Ethan Rosenberry</t>
+  </si>
+  <si>
+    <t>Robert Wood</t>
+  </si>
+  <si>
+    <t>Ian Viveiros</t>
+  </si>
+  <si>
+    <t>Markeish Williams</t>
+  </si>
+  <si>
+    <t>Paul Walter</t>
+  </si>
+  <si>
+    <t>Bryce Neptune</t>
+  </si>
+  <si>
+    <t>Duncan Keller</t>
+  </si>
+  <si>
+    <t>Mitch Conrad</t>
+  </si>
+  <si>
+    <t>Matt O'Brien</t>
+  </si>
+  <si>
+    <t>Ethan Strawser</t>
+  </si>
+  <si>
+    <t>Thomas Bywaters</t>
+  </si>
+  <si>
+    <t>Michael Hensel</t>
+  </si>
+  <si>
+    <t>Team 9:
+Personalized Commencement</t>
+  </si>
+  <si>
+    <t>Braden Fleming</t>
+  </si>
+  <si>
+    <t>Team 10:
+Card Game Repository</t>
+  </si>
+  <si>
+    <t>Team 6:
+Chess</t>
+  </si>
+  <si>
+    <t>Team 11:
+Sim Stock Trader</t>
+  </si>
+  <si>
+    <t>Team 7:
+Chess</t>
+  </si>
+  <si>
+    <t>Team 12:
+Chess</t>
+  </si>
+  <si>
+    <t>Team 8:
+Science Fiction TBAG</t>
+  </si>
+  <si>
     <t>Team 5:
-???</t>
-  </si>
-  <si>
-    <t>Team 6:
-???</t>
-  </si>
-  <si>
-    <t>Team 7:
-???</t>
-  </si>
-  <si>
-    <t>Team 8:
-???</t>
-  </si>
-  <si>
-    <t>Team 9:
-???</t>
-  </si>
-  <si>
-    <t>Team 10:
-???</t>
-  </si>
-  <si>
-    <t>Team 11:
-???</t>
-  </si>
-  <si>
-    <t>Team 12:
-???</t>
-  </si>
-  <si>
-    <t>In-Class Mentors: Eric Bosse, Tyler Franks</t>
-  </si>
-  <si>
-    <t>In-Class Mentors: Eric Bosse, Tyler Franks, David McHugh</t>
-  </si>
-  <si>
-    <t>In-Class Mentors: Tyler Franks, David McHugh, Mikayla Trost</t>
-  </si>
-  <si>
-    <t>Section 103 (M-W-F: 2:00 to 2:50)</t>
-  </si>
-  <si>
-    <t>Section 102 (M-W-F: 11:00 to 11:50)</t>
-  </si>
-  <si>
-    <t>Section 101 (M-W-F: 8:00 to 8:50)</t>
+9:43 TBAG</t>
   </si>
 </sst>
 </file>
@@ -697,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E4"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -728,7 +827,7 @@
     </row>
     <row r="4" spans="2:6" ht="20.399999999999999" x14ac:dyDescent="0.75">
       <c r="B4" s="26" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -737,7 +836,7 @@
     </row>
     <row r="5" spans="2:6" s="5" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B5" s="25" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
@@ -785,7 +884,7 @@
     <row r="11" spans="2:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="12" spans="2:6" ht="20.399999999999999" x14ac:dyDescent="0.75">
       <c r="B12" s="26" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
@@ -794,7 +893,7 @@
     </row>
     <row r="13" spans="2:6" s="5" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B13" s="25" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
@@ -803,46 +902,74 @@
     </row>
     <row r="14" spans="2:6" ht="31.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="15" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="B15" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
+      <c r="B16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="B17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="2:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B18" s="21"/>
+      <c r="B18" s="21" t="s">
+        <v>14</v>
+      </c>
       <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="D18" s="22" t="s">
+        <v>20</v>
+      </c>
       <c r="E18" s="21"/>
     </row>
     <row r="19" spans="2:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="20" spans="2:6" ht="20.399999999999999" x14ac:dyDescent="0.75">
       <c r="B20" s="26" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
@@ -851,49 +978,79 @@
     </row>
     <row r="21" spans="2:6" s="5" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B21" s="25" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="2:6" ht="31.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="2:6" ht="47.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B22" s="16" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
+      <c r="B23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
+      <c r="B24" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
+      <c r="B25" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="26" spans="2:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="22"/>
+      <c r="B26" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>35</v>
+      </c>
       <c r="E26" s="22"/>
     </row>
     <row r="27" spans="2:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>

--- a/teams-and-rosters/CS320-Sp22-Teams.xlsx
+++ b/teams-and-rosters/CS320-Sp22-Teams.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\donha\cs320-spring2022\teams-and-rosters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\djhake2\cs320-spring2022\teams-and-rosters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6F72DA-218C-4DF5-9172-32319895A2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9738" yWindow="222" windowWidth="12324" windowHeight="11784" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9735" yWindow="225" windowWidth="12330" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,25 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
-  <si>
-    <t>Team 3:
-???</t>
-  </si>
-  <si>
-    <t>Team 4:
-???</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>CS320: Software Engineering Teams - Spring 2022</t>
-  </si>
-  <si>
-    <t>Team 1:
-???</t>
-  </si>
-  <si>
-    <t>Team 2:
-???</t>
   </si>
   <si>
     <t>In-Class Mentors: Eric Bosse, Tyler Franks</t>
@@ -190,12 +173,73 @@
   <si>
     <t>Team 5:
 9:43 TBAG</t>
+  </si>
+  <si>
+    <t>Team 4:
+A-Team TBAG</t>
+  </si>
+  <si>
+    <t>Team 1:
+CE Dream Team TBAG</t>
+  </si>
+  <si>
+    <t>Brody Hageneder</t>
+  </si>
+  <si>
+    <t>Michael Geyer</t>
+  </si>
+  <si>
+    <t>Vincent Pagano</t>
+  </si>
+  <si>
+    <t>Alina Endres</t>
+  </si>
+  <si>
+    <t>Edward Reckard</t>
+  </si>
+  <si>
+    <t>Tina Abdalla</t>
+  </si>
+  <si>
+    <t>Team 2:
+The Baby Zombies TBAG</t>
+  </si>
+  <si>
+    <t>Jordan Carvell</t>
+  </si>
+  <si>
+    <t>Luke Dodson</t>
+  </si>
+  <si>
+    <t>Matthew Barthelmes</t>
+  </si>
+  <si>
+    <t>Dakota Messner</t>
+  </si>
+  <si>
+    <t>Bryce Warner</t>
+  </si>
+  <si>
+    <t>Theodore Bloomquist</t>
+  </si>
+  <si>
+    <t>Elizabeth Mains</t>
+  </si>
+  <si>
+    <t>Richard Wade</t>
+  </si>
+  <si>
+    <t>Anthony Metzger</t>
+  </si>
+  <si>
+    <t>Team 3:
+Fuses: Minesweeper</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -388,9 +432,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -433,9 +474,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -549,23 +587,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -601,23 +622,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -793,267 +797,297 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.41796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
     <col min="2" max="4" width="26" style="1" customWidth="1"/>
     <col min="5" max="5" width="28" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.68359375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.15625" style="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="25.8" x14ac:dyDescent="0.95">
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="2:6" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="2:6" s="2" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B12" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="2:6" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="2:6" ht="25.8" x14ac:dyDescent="0.95">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="2:6" ht="20.399999999999999" x14ac:dyDescent="0.75">
-      <c r="B4" s="26" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="2:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="2:6" s="5" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B5" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="2:6" s="2" customFormat="1" ht="31.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="15" t="s">
+      <c r="C18" s="20"/>
+      <c r="D18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B20" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="2:6" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="2:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="2:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="12" spans="2:6" ht="20.399999999999999" x14ac:dyDescent="0.75">
-      <c r="B12" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="2:6" s="5" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B13" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="2:6" ht="31.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="17" t="s">
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="18" t="s">
+      <c r="C23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="19" t="s">
+      <c r="C24" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B18" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="21"/>
-    </row>
-    <row r="19" spans="2:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="20" spans="2:6" ht="20.399999999999999" x14ac:dyDescent="0.75">
-      <c r="B20" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="2:6" s="5" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B21" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="2:6" ht="47.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B22" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="11" t="s">
+      <c r="C26" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B26" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="14" t="s">
+      <c r="D26" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="22"/>
-    </row>
-    <row r="27" spans="2:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B2:E2"/>
@@ -1070,24 +1104,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/teams-and-rosters/CS320-Sp22-Teams.xlsx
+++ b/teams-and-rosters/CS320-Sp22-Teams.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\djhake2\cs320-spring2022\teams-and-rosters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\donha\cs320-spring2022\teams-and-rosters\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BF29BE-2EAA-47AA-AAD2-6161BC564441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9735" yWindow="225" windowWidth="12330" windowHeight="11790"/>
+    <workbookView xWindow="408" yWindow="696" windowWidth="17664" windowHeight="11664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,23 +18,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>CS320: Software Engineering Teams - Spring 2022</t>
   </si>
@@ -69,9 +58,6 @@
   </si>
   <si>
     <t>Bean Stinson</t>
-  </si>
-  <si>
-    <t>Bailey McBride</t>
   </si>
   <si>
     <t>Derek Ile</t>
@@ -239,7 +225,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -587,6 +573,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -622,6 +625,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -797,23 +817,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.41796875" style="1" customWidth="1"/>
     <col min="2" max="4" width="26" style="1" customWidth="1"/>
     <col min="5" max="5" width="28" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="27.68359375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6" ht="25.8" x14ac:dyDescent="0.95">
       <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
@@ -822,14 +842,14 @@
       <c r="E2" s="22"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" ht="25.8" x14ac:dyDescent="0.95">
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" ht="20.399999999999999" x14ac:dyDescent="0.75">
       <c r="B4" s="24" t="s">
         <v>6</v>
       </c>
@@ -838,7 +858,7 @@
       <c r="E4" s="24"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="2:6" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B5" s="23" t="s">
         <v>1</v>
       </c>
@@ -847,76 +867,76 @@
       <c r="E5" s="23"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="2:6" s="2" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" s="2" customFormat="1" ht="31.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="C7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D8" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D9" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E9" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="20"/>
       <c r="C10" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="2:6" ht="20.399999999999999" x14ac:dyDescent="0.75">
       <c r="B12" s="24" t="s">
         <v>5</v>
       </c>
@@ -925,7 +945,7 @@
       <c r="E12" s="24"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="2:6" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B13" s="23" t="s">
         <v>2</v>
       </c>
@@ -934,21 +954,21 @@
       <c r="E13" s="23"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="2:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="31.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="16" t="s">
         <v>7</v>
       </c>
@@ -956,52 +976,50 @@
         <v>11</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>20</v>
-      </c>
+      <c r="C17" s="18"/>
       <c r="D17" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B18" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="19"/>
     </row>
-    <row r="19" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" spans="2:6" ht="20.399999999999999" x14ac:dyDescent="0.75">
       <c r="B20" s="24" t="s">
         <v>4</v>
       </c>
@@ -1010,7 +1028,7 @@
       <c r="E20" s="24"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="2:6" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B21" s="23" t="s">
         <v>3</v>
       </c>
@@ -1019,75 +1037,75 @@
       <c r="E21" s="23"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" ht="47.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B22" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
+      <c r="D23" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="21" t="s">
+      <c r="C24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E24" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
+    <row r="26" spans="2:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B26" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D26" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>31</v>
-      </c>
       <c r="E26" s="20"/>
     </row>
-    <row r="27" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B2:E2"/>
@@ -1104,24 +1122,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
